--- a/model parameter.xlsx
+++ b/model parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3296C5EF-5C00-4E3C-A76F-26A450478EF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F18891C-2E84-40DD-A6C8-5C360D9DCA42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32415" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t xml:space="preserve">model </t>
   </si>
@@ -48,9 +48,6 @@
     <t>Adam(.0001)</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>unet_1</t>
   </si>
   <si>
@@ -70,16 +67,61 @@
   </si>
   <si>
     <t>unet_4</t>
+  </si>
+  <si>
+    <t>unet_6</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <t>flip</t>
+  </si>
+  <si>
+    <t>dice loss</t>
+  </si>
+  <si>
+    <t>dice coefficient</t>
+  </si>
+  <si>
+    <t>rotation fixed</t>
+  </si>
+  <si>
+    <t>rotation random(-15, 15)</t>
+  </si>
+  <si>
+    <t>unet_7</t>
+  </si>
+  <si>
+    <t>unet_8</t>
+  </si>
+  <si>
+    <t>batch size</t>
+  </si>
+  <si>
+    <t>dice coefficient, surface distance, robust_hausdorff100</t>
+  </si>
+  <si>
+    <t>unet_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,11 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,10 +444,14 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +464,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -429,54 +485,90 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -485,10 +577,112 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model parameter.xlsx
+++ b/model parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F18891C-2E84-40DD-A6C8-5C360D9DCA42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6568B14B-CC0A-4CC3-82C7-E370AF2CA7E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32415" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t xml:space="preserve">model </t>
   </si>
@@ -106,13 +106,61 @@
   </si>
   <si>
     <t>unet_9</t>
+  </si>
+  <si>
+    <t>unet_10</t>
+  </si>
+  <si>
+    <t>Average of 4 images</t>
+  </si>
+  <si>
+    <t>unet_11</t>
+  </si>
+  <si>
+    <t>rotation random(-5, 5)</t>
+  </si>
+  <si>
+    <t>unet_12</t>
+  </si>
+  <si>
+    <t>Average of 8 images</t>
+  </si>
+  <si>
+    <t>unet_13</t>
+  </si>
+  <si>
+    <t>unet_14</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>unet_15</t>
+  </si>
+  <si>
+    <t>unet_16</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>unet_17</t>
+  </si>
+  <si>
+    <t>unet_18</t>
+  </si>
+  <si>
+    <t>BinaryCrossentropy</t>
+  </si>
+  <si>
+    <t>HPI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +174,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,17 +210,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,26 +690,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>4</v>
       </c>
     </row>
@@ -679,6 +757,230 @@
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="7">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="7">
+        <v>4</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="7">
+        <v>4</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="N39" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
